--- a/data/trans_dic/P05A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P05A_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3649722224914017</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03518963939231861</v>
+        <v>0.03518963939231862</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.168594716002737</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1405686550949373</v>
+        <v>0.1373945953524789</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3908785729038876</v>
+        <v>0.3879309791689636</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3101303937735613</v>
+        <v>0.3061040813700094</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01820796066682479</v>
+        <v>0.01760807895207963</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1291468708238885</v>
+        <v>0.1244228813087643</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3875703230705454</v>
+        <v>0.3901625762006777</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4226838948898505</v>
+        <v>0.4268811176412251</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02484874617913515</v>
+        <v>0.02452418348085901</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1464966105249507</v>
+        <v>0.1472398396500705</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4051039738141994</v>
+        <v>0.4049541015622231</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3795046743763507</v>
+        <v>0.3844526590913099</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02584007798802142</v>
+        <v>0.02507821794691766</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2414924379326148</v>
+        <v>0.2337244292719792</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5089216926327392</v>
+        <v>0.5100780394364649</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4281190896610085</v>
+        <v>0.4217638809235796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06344183364923431</v>
+        <v>0.06314521028611392</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.221993670117357</v>
+        <v>0.2186786577056076</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5174118651839897</v>
+        <v>0.5192182494660489</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5480729037135192</v>
+        <v>0.547846280693993</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05751901323992605</v>
+        <v>0.05930193425081724</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2153628430367619</v>
+        <v>0.2114265013045212</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4909207686329969</v>
+        <v>0.4887016937080714</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4660126661055598</v>
+        <v>0.469743769566602</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05228263291585866</v>
+        <v>0.05369340936296086</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2877789010833741</v>
+        <v>0.2847294290317418</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3443975186655422</v>
+        <v>0.3385441435634619</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4999754388359615</v>
+        <v>0.5031103868381529</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1066334726745124</v>
+        <v>0.1054140794342868</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3164667501798686</v>
+        <v>0.3182471173917396</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.372132510280117</v>
+        <v>0.3730768058571442</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4785238011992943</v>
+        <v>0.4767331631478222</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1096053807124202</v>
+        <v>0.110546901252953</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3161656128911743</v>
+        <v>0.3148983179048748</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3720606279446436</v>
+        <v>0.3712998661482528</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5017039374355693</v>
+        <v>0.500466762831698</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1162677318668194</v>
+        <v>0.1171923192963257</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3729409358155455</v>
+        <v>0.3733766585437209</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4338167316622609</v>
+        <v>0.4286287098856689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5923325861934186</v>
+        <v>0.5913804440487516</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1903865702892678</v>
+        <v>0.1913991065223867</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3963202948570179</v>
+        <v>0.4063856985303062</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4584805072583824</v>
+        <v>0.46560894772624</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5699744206078061</v>
+        <v>0.5663745026382566</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1642695705521338</v>
+        <v>0.1606815104804271</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3763385773017889</v>
+        <v>0.3791584566994954</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.43708022645077</v>
+        <v>0.4343558422184508</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5642994184688419</v>
+        <v>0.5641901405640825</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1648591703409423</v>
+        <v>0.1637149730430883</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3118863730947128</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2373840537464132</v>
+        <v>0.2373840537464131</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3878808795492984</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1754007964496121</v>
+        <v>0.170835240470661</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.396116862036907</v>
+        <v>0.4027203174441472</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2595151021189812</v>
+        <v>0.2640746312975683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1962145441919152</v>
+        <v>0.195224006885851</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3349045638712036</v>
+        <v>0.3347908570889517</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.466010136452271</v>
+        <v>0.4646746397192669</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2345868865725609</v>
+        <v>0.2383928604108803</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1798500906047005</v>
+        <v>0.1794472629409745</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2699166081159615</v>
+        <v>0.2714772413738061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4506483002536041</v>
+        <v>0.4533578686506442</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2640203451062393</v>
+        <v>0.2600637398399021</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2009436414999782</v>
+        <v>0.1974855210827224</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2655163525874603</v>
+        <v>0.2699661936098139</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5089570005488276</v>
+        <v>0.5129198616272035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3613749345210343</v>
+        <v>0.3622112887860761</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2884368131172599</v>
+        <v>0.281707618658655</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4414473489561798</v>
+        <v>0.4425988627912523</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5745025043716484</v>
+        <v>0.579011857705494</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3372285910458848</v>
+        <v>0.3345904766842013</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2582867253339922</v>
+        <v>0.2557601443437476</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3418656371258433</v>
+        <v>0.3396700337332192</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5325525038350255</v>
+        <v>0.5318269089856726</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3363756072439317</v>
+        <v>0.3298347084255617</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2612813403180086</v>
+        <v>0.2589640881394875</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2456998908454364</v>
+        <v>0.2501732531429977</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2779273289020792</v>
+        <v>0.2790785200462509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2647431637484802</v>
+        <v>0.2630142380390202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1456358258437801</v>
+        <v>0.1475046904352963</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2055099798528354</v>
+        <v>0.2045226380039367</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3592507029963787</v>
+        <v>0.3622265966807011</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3107876873671601</v>
+        <v>0.3107762958651339</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1786514624841515</v>
+        <v>0.1749485704155869</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2382584181788682</v>
+        <v>0.236725251010575</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3329193278615692</v>
+        <v>0.3355778881497618</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2984561803887543</v>
+        <v>0.3048665753191679</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1735301401744627</v>
+        <v>0.1723759226061784</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3454905505327944</v>
+        <v>0.3414393495569124</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3753893254945174</v>
+        <v>0.3798051138565618</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3655068875057936</v>
+        <v>0.3615737783180779</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2499784064894323</v>
+        <v>0.2487157423489748</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2932363573599598</v>
+        <v>0.2894706269014725</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4614647396995801</v>
+        <v>0.4565934302109293</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4159101640310531</v>
+        <v>0.4103735622079943</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2588304607976476</v>
+        <v>0.2540613216106211</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3017908387419797</v>
+        <v>0.3025420735098188</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4066001446511959</v>
+        <v>0.4072130682609073</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3732816858918926</v>
+        <v>0.3741789788594563</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2361909091708455</v>
+        <v>0.2348518989564844</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.2358873466551466</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.03848001856643783</v>
+        <v>0.03848001856643781</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.404075529172469</v>
+        <v>0.4047948522814396</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6258650150174566</v>
+        <v>0.6272052969199629</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1743847543107885</v>
+        <v>0.1739572768191836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03307913873556716</v>
+        <v>0.03302554543007735</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3782046079691631</v>
+        <v>0.374618581643621</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5583828807542325</v>
+        <v>0.5478727628704484</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1897697627649001</v>
+        <v>0.1836009821088756</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.009913423439517751</v>
+        <v>0.009648308554681177</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4068342281849565</v>
+        <v>0.408656923440061</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6098917354331167</v>
+        <v>0.6047660087275393</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1951635812983467</v>
+        <v>0.2036029843677793</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02448460655961263</v>
+        <v>0.02490955457447867</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5440077123593913</v>
+        <v>0.5421590354069658</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7563818333003456</v>
+        <v>0.7521064324889695</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2878325937077898</v>
+        <v>0.2893483789891186</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1003172350982201</v>
+        <v>0.09870887698094583</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5074550763888021</v>
+        <v>0.5158267186871354</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.681984831642159</v>
+        <v>0.6793278296373455</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3086063614129211</v>
+        <v>0.3037728600084948</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03500324678345457</v>
+        <v>0.03727315805523863</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.508334213486883</v>
+        <v>0.5064496949017205</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.700362083434045</v>
+        <v>0.704715820363476</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2769767837947319</v>
+        <v>0.2840462803966753</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05883642827881535</v>
+        <v>0.05641745625425826</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.128407782823085</v>
+        <v>0.1256213640248331</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4491273255922824</v>
+        <v>0.4403478627181213</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.33590048367849</v>
+        <v>0.3350593663518113</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1465898119420183</v>
+        <v>0.1471756795010969</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2330598917959625</v>
+        <v>0.2335056137344577</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3776950835280359</v>
+        <v>0.379194947707743</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2675816436150905</v>
+        <v>0.2716676404024992</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1729292973258686</v>
+        <v>0.1691795321391248</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1913527677099762</v>
+        <v>0.1928314423096204</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4315479545336204</v>
+        <v>0.4282304008127803</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.321406435418234</v>
+        <v>0.322614884049377</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1688607567442441</v>
+        <v>0.1690239789071012</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2218908942661065</v>
+        <v>0.2174251776898256</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5730570078517403</v>
+        <v>0.5639217580864501</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4571827777393939</v>
+        <v>0.4568682502710767</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2334701835938566</v>
+        <v>0.233548970654756</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3406083471397831</v>
+        <v>0.3382289698880432</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4915565951885976</v>
+        <v>0.4947284528165183</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3873204676799175</v>
+        <v>0.3838742197123266</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2515962825192015</v>
+        <v>0.2500331640399543</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.262452010359098</v>
+        <v>0.2642723811177158</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5196568190495143</v>
+        <v>0.5162347668706206</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4021703795412461</v>
+        <v>0.4050450649328179</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2276720473604589</v>
+        <v>0.2308636584387559</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2023606613716496</v>
+        <v>0.2044578599125477</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3836869638531933</v>
+        <v>0.3839835396645098</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3486942527247957</v>
+        <v>0.3528902610435963</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2833864692952193</v>
+        <v>0.2849374442010595</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.291873370589377</v>
+        <v>0.2952662062698416</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3643780723936806</v>
+        <v>0.3598634989160036</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3715351326208741</v>
+        <v>0.3713827147315235</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3178496418022517</v>
+        <v>0.3195660669844823</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2596182354317905</v>
+        <v>0.2560855568751572</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.38453723282037</v>
+        <v>0.382891498989585</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3693407458025336</v>
+        <v>0.3673379013273065</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3126540099906974</v>
+        <v>0.3102248262526751</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2730295870416833</v>
+        <v>0.2666523700324234</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4636798807510196</v>
+        <v>0.463849381324587</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4280261079534016</v>
+        <v>0.4327069088897382</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3641667374969378</v>
+        <v>0.3670662621194333</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3707091251738485</v>
+        <v>0.3737535070131335</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4413627507839859</v>
+        <v>0.4412214382303973</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4512366376561271</v>
+        <v>0.4435814306709947</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3850405853390627</v>
+        <v>0.3844953058831793</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3107312981569521</v>
+        <v>0.311189488489755</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4401885452453784</v>
+        <v>0.4385301066965875</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4245717113379818</v>
+        <v>0.4217356305572343</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3623752387591121</v>
+        <v>0.3656082259724556</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.356998375482366</v>
+        <v>0.3563593211702312</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2203927846093442</v>
+        <v>0.2199973087431087</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2500851064518272</v>
+        <v>0.2492084298370671</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.135517268442964</v>
+        <v>0.1321056403027483</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3900992643834933</v>
+        <v>0.3909154568189316</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2032991152487786</v>
+        <v>0.2062727069563386</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2428947648237804</v>
+        <v>0.2455196489757136</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.188395701350318</v>
+        <v>0.1875227134628295</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3830004094971324</v>
+        <v>0.3857019749165079</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2208018049521815</v>
+        <v>0.220089881019726</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.254937442305439</v>
+        <v>0.2542214462980072</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1692960709640014</v>
+        <v>0.1694843392109711</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4288894300877221</v>
+        <v>0.4273468463038927</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2843847415021815</v>
+        <v>0.2840555851951452</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3163305970237618</v>
+        <v>0.3158036532101793</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1897254256269923</v>
+        <v>0.18716503196659</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4624970916793197</v>
+        <v>0.4623856900501468</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2665566672032973</v>
+        <v>0.2667184300514421</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3066041202782603</v>
+        <v>0.3089419230411791</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2417858848799856</v>
+        <v>0.2399863029951902</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4355267729863387</v>
+        <v>0.434801702931462</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2672355994862454</v>
+        <v>0.2651574450584024</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3023427410017079</v>
+        <v>0.3005500395574175</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2075009451439574</v>
+        <v>0.2065985733679343</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.280737893077274</v>
+        <v>0.2809946008227046</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3795916139937504</v>
+        <v>0.3788499154973507</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3416930709360902</v>
+        <v>0.3427556206614477</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1720396067193689</v>
+        <v>0.1716956382849639</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3261511653591103</v>
+        <v>0.3273618084042295</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3819625533530212</v>
+        <v>0.3809681368805406</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.348583962360794</v>
+        <v>0.3513104935364176</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1926147194750338</v>
+        <v>0.1927916764846581</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3085942606506412</v>
+        <v>0.3086580730625506</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.3859810807130303</v>
+        <v>0.3857709410091506</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.3515708194827089</v>
+        <v>0.3518139525961006</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1854523332959428</v>
+        <v>0.1852919334136349</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3108917787262384</v>
+        <v>0.3126527666479297</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4159060776412247</v>
+        <v>0.4159516617265092</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.376748923100042</v>
+        <v>0.3752113350045632</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2008927390841384</v>
+        <v>0.2003036316083793</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3595365054260688</v>
+        <v>0.3609574382287812</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4163729689347302</v>
+        <v>0.4150405642030029</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3820237300248164</v>
+        <v>0.384163173848027</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2161832289214521</v>
+        <v>0.2171185912273697</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3311349645034042</v>
+        <v>0.3314070318207269</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.4101783018810876</v>
+        <v>0.4105199054624102</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3751675012593411</v>
+        <v>0.3762142398203986</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2055197286570746</v>
+        <v>0.204522147321166</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>38377</v>
+        <v>37510</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>113919</v>
+        <v>113060</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>91104</v>
+        <v>89921</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5806</v>
+        <v>5614</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>33686</v>
+        <v>32454</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>109823</v>
+        <v>110558</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>122030</v>
+        <v>123242</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7854</v>
+        <v>7751</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>78207</v>
+        <v>78604</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>232857</v>
+        <v>232771</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>221048</v>
+        <v>223930</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>16406</v>
+        <v>15922</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>65930</v>
+        <v>63809</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>148322</v>
+        <v>148659</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>125765</v>
+        <v>123898</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20228</v>
+        <v>20134</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>57904</v>
+        <v>57040</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>146616</v>
+        <v>147128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>158230</v>
+        <v>158165</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>18180</v>
+        <v>18743</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>114971</v>
+        <v>112870</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>282185</v>
+        <v>280910</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>271436</v>
+        <v>273609</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33195</v>
+        <v>34090</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>141897</v>
+        <v>140393</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>174102</v>
+        <v>171143</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>251275</v>
+        <v>252851</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>56585</v>
+        <v>55938</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>159483</v>
+        <v>160380</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>194910</v>
+        <v>195405</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>250308</v>
+        <v>249371</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>59899</v>
+        <v>60413</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>315225</v>
+        <v>313961</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>382959</v>
+        <v>382176</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>514577</v>
+        <v>513308</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>125237</v>
+        <v>126233</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>183888</v>
+        <v>184103</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>219306</v>
+        <v>216683</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>297692</v>
+        <v>297213</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>101028</v>
+        <v>101565</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>199725</v>
+        <v>204798</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>240136</v>
+        <v>243870</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>298144</v>
+        <v>296261</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>89772</v>
+        <v>87811</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>375219</v>
+        <v>378030</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>449883</v>
+        <v>447079</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>578779</v>
+        <v>578667</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>177577</v>
+        <v>176344</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>55926</v>
+        <v>54470</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>127983</v>
+        <v>130117</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>82672</v>
+        <v>84125</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>62002</v>
+        <v>61689</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>112331</v>
+        <v>112293</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>158919</v>
+        <v>158463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>78894</v>
+        <v>80174</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>64095</v>
+        <v>63952</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>176595</v>
+        <v>177616</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>299282</v>
+        <v>301081</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>172900</v>
+        <v>170309</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>135109</v>
+        <v>132784</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>84659</v>
+        <v>86078</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>164441</v>
+        <v>165721</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>115121</v>
+        <v>115388</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>91144</v>
+        <v>89018</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>148067</v>
+        <v>148453</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>195917</v>
+        <v>197455</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>113413</v>
+        <v>112526</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>92048</v>
+        <v>91148</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>223668</v>
+        <v>222232</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>353676</v>
+        <v>353194</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>220284</v>
+        <v>216000</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>175679</v>
+        <v>174121</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>88125</v>
+        <v>89730</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>103615</v>
+        <v>104044</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>97610</v>
+        <v>96973</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54343</v>
+        <v>55041</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>76338</v>
+        <v>75971</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>139023</v>
+        <v>140175</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>120363</v>
+        <v>120358</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>75262</v>
+        <v>73702</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>173959</v>
+        <v>172839</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>252951</v>
+        <v>254971</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>225627</v>
+        <v>230473</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>137856</v>
+        <v>136939</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>123917</v>
+        <v>122464</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>139950</v>
+        <v>141597</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>134761</v>
+        <v>133311</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>93278</v>
+        <v>92807</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>108924</v>
+        <v>107526</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>178578</v>
+        <v>176693</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>161075</v>
+        <v>158931</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>109039</v>
+        <v>107030</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>220346</v>
+        <v>220894</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>308933</v>
+        <v>309399</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>282193</v>
+        <v>282872</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>187635</v>
+        <v>186571</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>82152</v>
+        <v>82298</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>133070</v>
+        <v>133355</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>36834</v>
+        <v>36743</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6803</v>
+        <v>6792</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>78541</v>
+        <v>77796</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>122616</v>
+        <v>120308</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>41481</v>
+        <v>40133</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2269</v>
+        <v>2209</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>167199</v>
+        <v>167948</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>263601</v>
+        <v>261385</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>83883</v>
+        <v>87510</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>10641</v>
+        <v>10825</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>110601</v>
+        <v>110225</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>160820</v>
+        <v>159911</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>60796</v>
+        <v>61116</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20632</v>
+        <v>20301</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>105382</v>
+        <v>107121</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>149758</v>
+        <v>149174</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>67457</v>
+        <v>66401</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>8013</v>
+        <v>8532</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>208913</v>
+        <v>208139</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>302703</v>
+        <v>304585</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>119047</v>
+        <v>122085</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>25569</v>
+        <v>24518</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>34774</v>
+        <v>34020</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>123052</v>
+        <v>120647</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>88383</v>
+        <v>88162</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>39683</v>
+        <v>39841</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>64824</v>
+        <v>64948</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>105766</v>
+        <v>106186</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>72804</v>
+        <v>73915</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>45610</v>
+        <v>44621</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>105044</v>
+        <v>105856</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>239083</v>
+        <v>237245</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>172018</v>
+        <v>172664</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>90249</v>
+        <v>90336</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>60090</v>
+        <v>58881</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>157007</v>
+        <v>154504</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>120295</v>
+        <v>120213</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>63202</v>
+        <v>63223</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>94738</v>
+        <v>94076</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>137651</v>
+        <v>138539</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>105382</v>
+        <v>104444</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>66359</v>
+        <v>65946</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>144074</v>
+        <v>145074</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>287896</v>
+        <v>286000</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>215243</v>
+        <v>216781</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>121681</v>
+        <v>123387</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>124457</v>
+        <v>125747</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>254303</v>
+        <v>254500</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>228938</v>
+        <v>231693</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>203299</v>
+        <v>204412</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>186279</v>
+        <v>188445</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>252825</v>
+        <v>249692</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>256368</v>
+        <v>256263</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>245161</v>
+        <v>246485</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>325366</v>
+        <v>320938</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>521679</v>
+        <v>519446</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>497347</v>
+        <v>494650</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>465449</v>
+        <v>461832</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>167921</v>
+        <v>163998</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>307321</v>
+        <v>307434</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>281024</v>
+        <v>284097</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>261250</v>
+        <v>263330</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>236594</v>
+        <v>238537</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>306241</v>
+        <v>306143</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>311364</v>
+        <v>306081</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>296986</v>
+        <v>296565</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>389423</v>
+        <v>389997</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>597178</v>
+        <v>594928</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>571720</v>
+        <v>567901</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>539469</v>
+        <v>544282</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>265534</v>
+        <v>265058</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>171708</v>
+        <v>171399</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>194712</v>
+        <v>194029</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>108153</v>
+        <v>105430</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>305647</v>
+        <v>306287</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>167489</v>
+        <v>169938</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>200672</v>
+        <v>202840</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>156619</v>
+        <v>155893</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>584959</v>
+        <v>589085</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>353934</v>
+        <v>352793</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>409111</v>
+        <v>407962</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>275852</v>
+        <v>276158</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>319006</v>
+        <v>317858</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>221564</v>
+        <v>221307</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>246290</v>
+        <v>245879</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>151415</v>
+        <v>149371</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>362372</v>
+        <v>362284</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>219604</v>
+        <v>219737</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>253306</v>
+        <v>255238</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>201004</v>
+        <v>199508</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>665183</v>
+        <v>664075</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>428366</v>
+        <v>425034</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>485185</v>
+        <v>482308</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>338103</v>
+        <v>336632</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>919850</v>
+        <v>920691</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1298721</v>
+        <v>1296184</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1159393</v>
+        <v>1162998</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>607380</v>
+        <v>606166</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1102129</v>
+        <v>1106220</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1356906</v>
+        <v>1353373</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1234767</v>
+        <v>1244425</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>719517</v>
+        <v>720178</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2053923</v>
+        <v>2054348</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2691764</v>
+        <v>2690298</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2438256</v>
+        <v>2439942</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1347495</v>
+        <v>1346329</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1018650</v>
+        <v>1024420</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1422966</v>
+        <v>1423122</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1278340</v>
+        <v>1273123</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>709245</v>
+        <v>707165</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1214945</v>
+        <v>1219746</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1479147</v>
+        <v>1474414</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1353218</v>
+        <v>1360797</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>807557</v>
+        <v>811051</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2203949</v>
+        <v>2205759</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2860511</v>
+        <v>2862893</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2601906</v>
+        <v>2609166</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1493304</v>
+        <v>1486056</v>
       </c>
     </row>
     <row r="40">
